--- a/supp_data/tcga_positive_sig_sig_survivals_nonepi.xlsx
+++ b/supp_data/tcga_positive_sig_sig_survivals_nonepi.xlsx
@@ -7,24 +7,27 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Skin_Melanoma__Ageing+SBS5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Stomach_AdenoCa__SBS5+Technical" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Stomach_AdenoCa__APOBEC+SBS40" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Lung_AdenoCa__Technical+SBS40" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ColoRect_AdenoCa__APOBEC+SBS17" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ColoRect_AdenoCa__HR+SBS17" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Lung_AdenoCa__SBS5+Tobacco" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Skin_Melanoma__Technical+SBS38" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Skin_Melanoma__Ageing+UV" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Skin_Melanoma__SBS5+UV" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Stomach_AdenoCa__SBS40+APOBEC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ColoRect_AdenoCa__SBS17+APOBEC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ColoRect_AdenoCa__SBS17+HR" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lung_AdenoCa__SBS40+Technical" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Skin_Melanoma__SBS38+Technical" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Stomach_AdenoCa__APOBEC+SBS40" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Lung_AdenoCa__Technical+SBS40" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ColoRect_AdenoCa__APOBEC+SBS17" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ColoRect_AdenoCa__HR+SBS17" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Lung_AdenoCa__CL SBS5+Tobacco" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Skin_Melanoma__Technical+SBS38" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Skin_Melanoma__CL SBS1+UV" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Skin_Melanoma__CL SBS5+UV" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
-  <si>
-    <t xml:space="preserve">Head_SCC__Ageing+APOBEC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">Model 1</t>
@@ -57,13 +60,13 @@
     <t xml:space="preserve">log(total_muts + 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing</t>
-  </si>
-  <si>
     <t xml:space="preserve">statusAPOBEC</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+APOBEC</t>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">Model log-likelihoods</t>
@@ -165,19 +168,373 @@
     <t xml:space="preserve">Best model is Model 3</t>
   </si>
   <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.390970027673052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_cancer__Ageing+MMR</t>
+    <t xml:space="preserve">p-value of interaction in this model: 0.39097002767305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-349.0947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.8114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.419,   p = 0.00812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.419,   p = 0.00371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.356,   p = 0.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.356,   p = 0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-347.5609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.143,   p = 0.00178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.143,   p = 0.000844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.214079360241968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-480.1646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-476.1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.8189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.415,   p = 0.0661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.415,   p = 0.0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.9710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.719,   p = 0.0716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.719,   p = 0.0538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-479.9412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.660,   p = 0.0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.660,   p = 0.0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996473805569052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCa__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.83828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.50877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.69481937042985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-257.7106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-245.4963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.7773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.562,   p = 0.00192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.562,   p = 0.00115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.8810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.769,   p = 0.00132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.769,   p = 0.00103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-254.2374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 17.482,   p = 0.000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 17.482,   p = 0.00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0338975968270399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80.87591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.69640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.72314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.054,   p = 0.828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.054,   p = 0.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.00517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-nested likelihood ratio test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.835,   p = 0.798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.835,   p = 0.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.835,   two-sided p = 0.4038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.01323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.583,   p = 0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.583,   p = 0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.186036022242479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__SBS17+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-198.6193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-203.8529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.467,   p = 0.00495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.467,   p = 0.00122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-198.6997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.161,   p = 0.669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.161,   p = 0.688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-203.8597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.320,   p = 0.00461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.320,   p = 0.00132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.000865328228538427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__SBS17+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-199.9520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-204.3313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.759,   p = 0.00531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.759,   p = 0.00308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200.0784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.253,   p = 0.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.253,   p = 0.615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-204.3319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.507,   p = 0.00507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.507,   p = 0.00354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.00801604952142733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">statusMMR</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+MMR</t>
+    <t xml:space="preserve">statusCL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-64.33322</t>
@@ -186,16 +543,10 @@
     <t xml:space="preserve">-60.18212</t>
   </si>
   <si>
-    <t xml:space="preserve">Best model is Model 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">p-value of interaction in this model: 0.999987458179143</t>
   </si>
   <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3668</t>
+    <t xml:space="preserve">ColoRect_AdenoCa__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-212.2372</t>
@@ -204,10 +555,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.7106</t>
+    <t xml:space="preserve">Stomach_AdenoCa__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-255.3555</t>
@@ -216,10 +564,7 @@
     <t xml:space="preserve">-256.5634</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.721</t>
+    <t xml:space="preserve">Fine: p = 0.568</t>
   </si>
   <si>
     <t xml:space="preserve">    LR = 2.416,   p = 0.163</t>
@@ -228,574 +573,382 @@
     <t xml:space="preserve">    LR = 2.416,   p = 0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">p-value of interaction in this model: 0.998832417849067</t>
   </si>
   <si>
-    <t xml:space="preserve">Uterus_AdenoCa__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-80.87591</t>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-77.62177</t>
   </si>
   <si>
-    <t xml:space="preserve">Breast_cancer__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.51760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-63.30758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.598,   p = 0.0301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.598,   p = 0.0182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.82315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.610,   p = 0.388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.610,   p = 0.434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-63.77402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.920,   p = 0.0265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.920,   p = 0.0151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998427156053303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervix_CA__Ageing+SBS5</t>
+    <t xml:space="preserve">Breast_cancer__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.46731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998161039661906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cervix_CA__CL SBS5+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-181.0436</t>
   </si>
   <si>
-    <t xml:space="preserve">-176.5750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-211.5620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-202.1655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200.8137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS5</t>
+    <t xml:space="preserve">-176.4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.844412751571275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-205.6991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-212.0859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.774,   p = 0.000805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.774,   p = 0.000352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-206.0909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.784,   p = 0.389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.784,   p = 0.376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-212.4886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.795,   p = 0.000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.795,   p = 0.000347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.644262806137635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75.97020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75.97632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.012,   p = 0.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.012,   p = 0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.44900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.345,   p = 0.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.345,   p = 0.08935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.345,   two-sided p = 0.1787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.68086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.409,   p = 0.0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.409,   p = 0.00649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.99815504145362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__Technical+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTechnical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-249.5865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-254.7208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.269,   p = 0.000873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.269,   p = 0.00135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-251.8416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.510,   p = 0.0531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.510,   p = 0.0337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-255.7459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.319,   p = 0.00431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.319,   p = 0.00211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.140115947769847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_GBM__PolE+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-171.6108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-163.6511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996324695063154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__Technical+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.92793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998436077266241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-476.0372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.3568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.639,   p = 0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.639,   p = 0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.9186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.194,   p = 0.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.194,   p = 0.4233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.194,   two-sided p = 0.8465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-479.7405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.767,   p = 0.0477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.767,   p = 0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996498621304587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__MMR+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__SBS29+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__SBS40+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.2258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-345.9290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.406,   p = 0.00255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.406,   p = 0.00216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.2509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.050,   p = 0.874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.050,   p = 0.823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.4676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.433,   p = 0.00138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.433,   p = 0.00124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0785442913802871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS38+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+Technical</t>
   </si>
   <si>
     <t xml:space="preserve">-529.2339</t>
   </si>
   <si>
-    <t xml:space="preserve">-517.5606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-525.0226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 14.924,   p = 0.000196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 14.924,   p = 0.000112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-517.5905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.060,   p = 0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.060,   p = 0.807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-525.1392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.097,   p = 0.000215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.097,   p = 0.000102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.00234386277068456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-251.0296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.48735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-349.0947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.8114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.0207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.419,   p = 0.00812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.419,   p = 0.00371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.9896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.356,   p = 0.573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.356,   p = 0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-347.5609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.143,   p = 0.00178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.143,   p = 0.000844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.214079360241968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-480.1646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-476.1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.8189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.415,   p = 0.0661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.415,   p = 0.0646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.9710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.719,   p = 0.0716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.719,   p = 0.0538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-479.9412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.660,   p = 0.0294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.660,   p = 0.0217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996473805569052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCa__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.83828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.50877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.69481937042985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_cancer__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.46731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998161039661906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervix_CA__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-176.4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.844412751571275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-205.6991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-212.0859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.774,   p = 0.000805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.774,   p = 0.000352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-206.0909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.784,   p = 0.389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.784,   p = 0.376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-212.4886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.795,   p = 0.000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.795,   p = 0.000347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.644262806137636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.97020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.97632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.012,   p = 0.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.012,   p = 0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.44900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-nested likelihood ratio test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.345,   p = 0.911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.345,   p = 0.08935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.345,   two-sided p = 0.1787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.68086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.409,   p = 0.0067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.409,   p = 0.00649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998155041443009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__MMR+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTechnical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-249.5865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.7208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.269,   p = 0.000873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.269,   p = 0.00135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-251.8416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.510,   p = 0.0531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.510,   p = 0.0337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-255.7459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.319,   p = 0.00431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.319,   p = 0.00211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.140115947769847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_cancer__SBS29+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.92793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998436077266241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__SBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-476.0372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.3568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.639,   p = 0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.639,   p = 0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.9186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.4233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   two-sided p = 0.8465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-479.7405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.767,   p = 0.0477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.767,   p = 0.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996498621304587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__SBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-249.5919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.8693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.555,   p = 0.000858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.555,   p = 0.00116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-253.9942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.805,   p = 0.00445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.805,   p = 0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.1509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.118,   p = 0.000919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.118,   p = 0.000521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0928831196328962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__Ageing+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+PolE</t>
+    <t xml:space="preserve">-516.1883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-524.1256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.875,   p = 9.85e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.875,   p = 6.77e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-516.2536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.131,   p = 0.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.131,   p = 0.718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-524.1348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.762,   p = 0.000125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.762,   p = 7.18e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.00519804386598325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS1+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+PolE</t>
   </si>
   <si>
     <t xml:space="preserve">-77.95328</t>
@@ -804,79 +957,85 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.997563495070552</t>
   </si>
   <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.46431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.46582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.003,   p = 0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.003,   p = 0.956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.95177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.161,   p = 0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.161,   p = 0.1229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.161,   two-sided p = 0.2457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.96380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.996,   p = 0.0289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.996,   p = 0.0835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.501877675360273</t>
+  </si>
+  <si>
     <t xml:space="preserve">CNS_GBM__MMR+PolE</t>
   </si>
   <si>
-    <t xml:space="preserve">statusMMR+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-171.6108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-163.6511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996324695063154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__SBS5+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.46431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.46582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.003,   p = 0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.003,   p = 0.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.95177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.161,   p = 0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.161,   p = 0.1229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.161,   two-sided p = 0.2457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.96380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.996,   p = 0.0289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.996,   p = 0.0835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.50187767536027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__Ageing+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS40</t>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS28+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.64558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.997851938475867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__APOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__APOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS1+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-341.0551</t>
@@ -885,271 +1044,37 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.128733737628735</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomach_AdenoCa__APOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-245.4963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.7773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.562,   p = 0.00192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.562,   p = 0.00115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.8810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.769,   p = 0.00132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.769,   p = 0.00103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.2374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.482,   p = 0.000336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.482,   p = 0.00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0338975968270399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__APOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.69640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.72314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.054,   p = 0.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.054,   p = 0.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.00517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.835,   p = 0.798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.835,   p = 0.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.835,   two-sided p = 0.4038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.01323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.583,   p = 0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.583,   p = 0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.186036022242479</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_AdenoCa__Technical+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS40+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.2258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-345.9290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.406,   p = 0.00255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.406,   p = 0.00216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.2509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.050,   p = 0.874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.050,   p = 0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.4676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.433,   p = 0.00138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.433,   p = 0.00124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0785442913802871</t>
+    <t xml:space="preserve">Lung_AdenoCa__SBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.3369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.247973199156474</t>
   </si>
   <si>
     <t xml:space="preserve">ColoRect_AdenoCa__APOBEC+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-198.6193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-203.8529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.467,   p = 0.00495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.467,   p = 0.00122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-198.6997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.161,   p = 0.669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.161,   p = 0.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-203.8597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.320,   p = 0.00461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.320,   p = 0.00132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.000865328228538427</t>
-  </si>
-  <si>
     <t xml:space="preserve">ColoRect_AdenoCa__HR+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-199.9520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-204.3313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.759,   p = 0.00531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.759,   p = 0.00308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200.0784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.253,   p = 0.588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.253,   p = 0.615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-204.3319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.507,   p = 0.00507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.507,   p = 0.00354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.00801604952142733</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_AdenoCa__SBS40+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS17+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.3369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.247973199156474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__SBS5+Tobacco</t>
+    <t xml:space="preserve">Head_SCC__CL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">statusTobacco</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS5+Tobacco</t>
+    <t xml:space="preserve">statusCL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-540.1036</t>
@@ -1158,7 +1083,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.995608745631385</t>
   </si>
   <si>
-    <t xml:space="preserve">Lung_AdenoCa__SBS5+Tobacco</t>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-341.7216</t>
@@ -1203,7 +1128,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.0370221434152941</t>
   </si>
   <si>
-    <t xml:space="preserve">Lung_SCC__SBS5+Tobacco</t>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-476.6294</t>
@@ -1215,61 +1140,13 @@
     <t xml:space="preserve">Skin_Melanoma__Technical+SBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-516.1883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-524.1256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.875,   p = 9.85e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.875,   p = 6.77e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-516.2536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.131,   p = 0.757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.131,   p = 0.718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-524.1348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.762,   p = 0.000125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.762,   p = 7.18e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.00519804386598325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+UV</t>
   </si>
   <si>
     <t xml:space="preserve">statusUV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+UV</t>
+    <t xml:space="preserve">statusCL SBS1+UV</t>
   </si>
   <si>
     <t xml:space="preserve">-515.9054</t>
@@ -1314,10 +1191,10 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.0305917724205344</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS5+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5+UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+UV</t>
   </si>
   <si>
     <t xml:space="preserve">-516.3693</t>
@@ -1362,13 +1239,10 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.00344217880921929</t>
   </si>
   <si>
-    <t xml:space="preserve">Uterus_AdenoCa__SBS5+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS28+SBS5</t>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS28</t>
   </si>
   <si>
     <t xml:space="preserve">-76.68406</t>
@@ -1378,15 +1252,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uterus_AdenoCa__PolE+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-76.64558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.997851938475867</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1598,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -1771,19 +1636,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0242082076173834</v>
+        <v>0.036947188901135</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02450360514046</v>
+        <v>1.03763822057649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00670084299967834</v>
+        <v>0.0132097022563191</v>
       </c>
       <c r="E6" t="n">
-        <v>3.61271076169752</v>
+        <v>2.79697363227551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000303012638436286</v>
+        <v>0.00515837428739218</v>
       </c>
     </row>
     <row r="7">
@@ -1791,79 +1656,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0699627051569417</v>
+        <v>-0.0860612064827584</v>
       </c>
       <c r="C7" t="n">
-        <v>1.07246818297579</v>
+        <v>0.917538070223385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116461635482227</v>
+        <v>0.175329311361918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.600736069584207</v>
+        <v>-0.490854642696391</v>
       </c>
       <c r="F7" t="n">
-        <v>0.548015790863029</v>
+        <v>0.623529259204511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B8" t="n">
-        <v>1.92289726770664</v>
+        <v>-15.2659132303192</v>
       </c>
       <c r="C8" t="n">
-        <v>6.84074926776891</v>
+        <v>0.000000234475852138142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.676734322576979</v>
+        <v>3037.12284104916</v>
       </c>
       <c r="E8" t="n">
-        <v>2.84143600162664</v>
+        <v>-0.00502643917591614</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00449108650854627</v>
+        <v>0.995989498673342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.291040311313018</v>
+        <v>2.27331597421638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.747485545286958</v>
+        <v>9.71155073229307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.316531042136563</v>
+        <v>0.408327995678119</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.919468464604659</v>
+        <v>5.56737720234205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.357850592977086</v>
+        <v>0.0000000258602196377649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.459292364578541</v>
+        <v>1.93893850153307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.63173052226974</v>
+        <v>6.95136818625057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239057080259841</v>
+        <v>0.743833262745764</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.92126651960828</v>
+        <v>2.60668431843949</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0546981157566178</v>
+        <v>0.00914236040769786</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1746,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35">
@@ -1922,79 +1787,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154469015972304</v>
+        <v>-0.00559286118269066</v>
       </c>
       <c r="C39" t="n">
-        <v>1.16703811795594</v>
+        <v>0.994422749748597</v>
       </c>
       <c r="D39" t="n">
-        <v>0.118622959640873</v>
+        <v>0.165306876045289</v>
       </c>
       <c r="E39" t="n">
-        <v>1.30218480840432</v>
+        <v>-0.0338332035332782</v>
       </c>
       <c r="F39" t="n">
-        <v>0.19285321709069</v>
+        <v>0.97301015850393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B40" t="n">
-        <v>2.3543990447973</v>
+        <v>-15.6564526087818</v>
       </c>
       <c r="C40" t="n">
-        <v>10.5317978208558</v>
+        <v>0.000000158667882470726</v>
       </c>
       <c r="D40" t="n">
-        <v>0.677030566279733</v>
+        <v>2956.85451061392</v>
       </c>
       <c r="E40" t="n">
-        <v>3.47753729604065</v>
+        <v>-0.00529496887742749</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000506042644310237</v>
+        <v>0.995775245824136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.196820239673616</v>
+        <v>2.36676624504546</v>
       </c>
       <c r="C41" t="n">
-        <v>0.821338264077606</v>
+        <v>10.6628554108007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31602380120646</v>
+        <v>0.407882807605141</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.622801950113345</v>
+        <v>5.80256436632321</v>
       </c>
       <c r="F41" t="n">
-        <v>0.533414676675772</v>
+        <v>0.00000000653083106614727</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.317841844066564</v>
+        <v>1.8194396799165</v>
       </c>
       <c r="C42" t="n">
-        <v>0.72771787221312</v>
+        <v>6.16840120231461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.239408779566374</v>
+        <v>0.742717943217547</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.32761147958839</v>
+        <v>2.44970475876004</v>
       </c>
       <c r="F42" t="n">
-        <v>0.184306490214545</v>
+        <v>0.0142973393180779</v>
       </c>
     </row>
     <row r="45">
@@ -2012,10 +1877,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
@@ -2045,7 +1910,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
@@ -2065,7 +1930,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>419</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -2085,7 +1950,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>420</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68">
@@ -2123,79 +1988,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0248379517304575</v>
+        <v>0.0360551511481458</v>
       </c>
       <c r="C72" t="n">
-        <v>1.02514898344489</v>
+        <v>1.03671302082769</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0065964275960097</v>
+        <v>0.0131143267358209</v>
       </c>
       <c r="E72" t="n">
-        <v>3.76536411094431</v>
+        <v>2.74929486465086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000166306552409678</v>
+        <v>0.00597236329584945</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77229272712101</v>
+        <v>-15.2569589376324</v>
       </c>
       <c r="C73" t="n">
-        <v>5.88432906826403</v>
+        <v>0.000000236584845727659</v>
       </c>
       <c r="D73" t="n">
-        <v>0.627145265190114</v>
+        <v>3034.88571504163</v>
       </c>
       <c r="E73" t="n">
-        <v>2.82596844063513</v>
+        <v>-0.00502719389465481</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00471379080234534</v>
+        <v>0.995988896502521</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.298477031351828</v>
+        <v>2.27705569767478</v>
       </c>
       <c r="C74" t="n">
-        <v>0.741947323181425</v>
+        <v>9.74793724171847</v>
       </c>
       <c r="D74" t="n">
-        <v>0.316131122896947</v>
+        <v>0.408006894949932</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.944155794015656</v>
+        <v>5.58092455264564</v>
       </c>
       <c r="F74" t="n">
-        <v>0.345090041291784</v>
+        <v>0.0000000239243413359462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.497859386206218</v>
+        <v>1.96736823105448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.607830398231959</v>
+        <v>7.15182973567347</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230240743669791</v>
+        <v>0.742013044528875</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.16234267780269</v>
+        <v>2.65139305240061</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0305917724205344</v>
+        <v>0.00801604952142733</v>
       </c>
     </row>
     <row r="78">
@@ -2213,10 +2078,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
@@ -2246,7 +2111,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>422</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89">
@@ -2266,7 +2131,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>423</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93">
@@ -2286,7 +2151,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>424</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
@@ -2321,62 +2186,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B105" t="n">
-        <v>2.02386130271464</v>
+        <v>-15.6552874270571</v>
       </c>
       <c r="C105" t="n">
-        <v>7.56748895751892</v>
+        <v>0.00000015885286713713</v>
       </c>
       <c r="D105" t="n">
-        <v>0.625329321747219</v>
+        <v>2956.8197225336</v>
       </c>
       <c r="E105" t="n">
-        <v>3.23647273897187</v>
+        <v>-0.00529463710883348</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00121016784866111</v>
+        <v>0.995775510533464</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.220269189209272</v>
+        <v>2.36697059682174</v>
       </c>
       <c r="C106" t="n">
-        <v>0.802302797635612</v>
+        <v>10.6650346068979</v>
       </c>
       <c r="D106" t="n">
-        <v>0.315568068376545</v>
+        <v>0.407822822405505</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.698008484643131</v>
+        <v>5.80391892454764</v>
       </c>
       <c r="F106" t="n">
-        <v>0.485171887941761</v>
+        <v>0.00000000647826106942813</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.414558458212081</v>
+        <v>1.82169580539208</v>
       </c>
       <c r="C107" t="n">
-        <v>0.660631912912325</v>
+        <v>6.18233360011982</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22847822688965</v>
+        <v>0.739753462202157</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.81443310312585</v>
+        <v>2.46257151669032</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0696110731901955</v>
+        <v>0.0137944659193291</v>
       </c>
     </row>
     <row r="111">
@@ -2394,10 +2259,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
@@ -2427,7 +2292,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
@@ -2447,7 +2312,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
@@ -2467,7 +2332,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
@@ -2477,7 +2342,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>429</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2361,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>430</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
@@ -2534,19 +2399,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0262016681541797</v>
+        <v>0.0363136047367352</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02654794963015</v>
+        <v>1.03698099765656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0066875967170325</v>
+        <v>0.0131742769249198</v>
       </c>
       <c r="E6" t="n">
-        <v>3.91794979016112</v>
+        <v>2.75640211175812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000893053016232787</v>
+        <v>0.00584411023440403</v>
       </c>
     </row>
     <row r="7">
@@ -2554,79 +2419,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0433557251936927</v>
+        <v>-0.0778060115129838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.957570697452324</v>
+        <v>0.925143876398228</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116078300144518</v>
+        <v>0.18195071072264</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.373504135912695</v>
+        <v>-0.42762136626984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.708773267683961</v>
+        <v>0.668926807613216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.408072254114914</v>
+        <v>-0.914197038728002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664930833097847</v>
+        <v>0.400838354580834</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367922686893337</v>
+        <v>0.497759767496699</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.10912501091083</v>
+        <v>-1.83662300254924</v>
       </c>
       <c r="F8" t="n">
-        <v>0.267376256679289</v>
+        <v>0.0662655691415196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.101182168051175</v>
+        <v>-13.8516267106784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.903768380164559</v>
+        <v>0.000000964528254401801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.413304802909318</v>
+        <v>3674.76947569592</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.244812466099928</v>
+        <v>-0.00376938657031139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.806601641035626</v>
+        <v>0.996992471773817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.870963859465022</v>
+        <v>-0.977823707328724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.418547933377247</v>
+        <v>0.376128775073937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.299519530433658</v>
+        <v>0.480623361005226</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.90787000835638</v>
+        <v>-2.03449059422247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0036389956823447</v>
+        <v>0.0419021559835245</v>
       </c>
     </row>
     <row r="12">
@@ -2644,10 +2509,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
@@ -2685,79 +2550,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0309452093126453</v>
+        <v>-0.156148658553714</v>
       </c>
       <c r="C39" t="n">
-        <v>1.03142898963501</v>
+        <v>0.85543201363235</v>
       </c>
       <c r="D39" t="n">
-        <v>0.119238168951738</v>
+        <v>0.183586501071594</v>
       </c>
       <c r="E39" t="n">
-        <v>0.25952435855645</v>
+        <v>-0.850545424866618</v>
       </c>
       <c r="F39" t="n">
-        <v>0.795230690258828</v>
+        <v>0.395021916803333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.587408442679806</v>
+        <v>-0.678982819326304</v>
       </c>
       <c r="C40" t="n">
-        <v>0.555765718754087</v>
+        <v>0.507132575555364</v>
       </c>
       <c r="D40" t="n">
-        <v>0.364674961941648</v>
+        <v>0.491603510602191</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.61077261666733</v>
+        <v>-1.3811594194976</v>
       </c>
       <c r="F40" t="n">
-        <v>0.10722929159175</v>
+        <v>0.167229949051908</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.290950471956879</v>
+        <v>-13.8799839488178</v>
       </c>
       <c r="C41" t="n">
-        <v>0.747552701923679</v>
+        <v>0.000000937561061629739</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410334711443532</v>
+        <v>3587.42882669145</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.709056445488936</v>
+        <v>-0.00386906183212527</v>
       </c>
       <c r="F41" t="n">
-        <v>0.478289449689857</v>
+        <v>0.996912943001379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.853050372093682</v>
+        <v>-0.983966850270871</v>
       </c>
       <c r="C42" t="n">
-        <v>0.42611314384634</v>
+        <v>0.373825244945681</v>
       </c>
       <c r="D42" t="n">
-        <v>0.30443485258912</v>
+        <v>0.480417747491897</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.80207855585116</v>
+        <v>-2.0481484195949</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00507745083659468</v>
+        <v>0.0405454587492503</v>
       </c>
     </row>
     <row r="45">
@@ -2775,10 +2640,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50">
@@ -2808,7 +2673,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56">
@@ -2828,7 +2693,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60">
@@ -2848,7 +2713,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>436</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68">
@@ -2886,79 +2751,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0258808410223578</v>
+        <v>0.0370728816599571</v>
       </c>
       <c r="C72" t="n">
-        <v>1.02621865802146</v>
+        <v>1.03776865238408</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00664638122499991</v>
+        <v>0.0130383921897098</v>
       </c>
       <c r="E72" t="n">
-        <v>3.89397480316188</v>
+        <v>2.8433629791575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0000986148975108702</v>
+        <v>0.00446401991331289</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.390001507306067</v>
+        <v>-0.878486849927444</v>
       </c>
       <c r="C73" t="n">
-        <v>0.677055853967</v>
+        <v>0.41541101556236</v>
       </c>
       <c r="D73" t="n">
-        <v>0.364744306643482</v>
+        <v>0.490554253970074</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.06924631914069</v>
+        <v>-1.79080467209859</v>
       </c>
       <c r="F73" t="n">
-        <v>0.28495869223818</v>
+        <v>0.073324645266758</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0975933790465447</v>
+        <v>-13.8507316020672</v>
       </c>
       <c r="C74" t="n">
-        <v>0.907017641158712</v>
+        <v>0.000000965391998462816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.413134481819045</v>
+        <v>3676.76731668402</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.236226660667097</v>
+        <v>-0.00376709495300855</v>
       </c>
       <c r="F74" t="n">
-        <v>0.813256792638756</v>
+        <v>0.996994300206901</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.839259968690426</v>
+        <v>-0.997909856010642</v>
       </c>
       <c r="C75" t="n">
-        <v>0.432030120974599</v>
+        <v>0.368649166312179</v>
       </c>
       <c r="D75" t="n">
-        <v>0.286905357871624</v>
+        <v>0.47849455054304</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.92521539129274</v>
+        <v>-2.08551979302193</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00344217880921929</v>
+        <v>0.0370221434152941</v>
       </c>
     </row>
     <row r="78">
@@ -2976,10 +2841,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>437</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83">
@@ -3009,7 +2874,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89">
@@ -3029,7 +2894,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93">
@@ -3049,7 +2914,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101">
@@ -3084,62 +2949,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.600776565467813</v>
+        <v>-0.590560352689482</v>
       </c>
       <c r="C105" t="n">
-        <v>0.54838561336778</v>
+        <v>0.554016752961435</v>
       </c>
       <c r="D105" t="n">
-        <v>0.361005636169794</v>
+        <v>0.479969986769081</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.66417503017943</v>
+        <v>-1.23041100270632</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0960774564933442</v>
+        <v>0.218543235224933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.298450402582065</v>
+        <v>-13.8759530987744</v>
       </c>
       <c r="C106" t="n">
-        <v>0.741967080588926</v>
+        <v>0.00000094134785654968</v>
       </c>
       <c r="D106" t="n">
-        <v>0.409263036265656</v>
+        <v>3585.19391043756</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.729238597517364</v>
+        <v>-0.00387034939961753</v>
       </c>
       <c r="F106" t="n">
-        <v>0.465855724861532</v>
+        <v>0.996911915678848</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.879679466057591</v>
+        <v>-1.02357351322428</v>
       </c>
       <c r="C107" t="n">
-        <v>0.414915884993598</v>
+        <v>0.35930864904377</v>
       </c>
       <c r="D107" t="n">
-        <v>0.286852922848621</v>
+        <v>0.47841552830049</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.06665679861948</v>
+        <v>-2.13950729580286</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00216467241713865</v>
+        <v>0.0323946056846878</v>
       </c>
     </row>
     <row r="111">
@@ -3157,10 +3022,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>441</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116">
@@ -3190,7 +3055,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>442</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122">
@@ -3210,7 +3075,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>443</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126">
@@ -3230,7 +3095,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>444</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134">
@@ -3240,7 +3105,2296 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>445</v>
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0258419631506758</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0261787615997</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00661169442191517</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.90852351932961</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0000928619083376924</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.0427934166115103</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.958109299089518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.118447831975288</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.361284929389323</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.717886458585796</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-14.9049280777236</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00000033641239021828</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2756.68505792883</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.00540683021981557</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.995685994663875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.528607391908917</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.69656800839328</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.209711457284227</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5206414506599</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0117141146132914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.883750068670631</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.41995771934428</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.325491226260329</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.71512715972198</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00662503271567506</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0165713890004796</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.01670945606719</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.122616096289379</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.135148561257165</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.892494416017355</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-14.8425249789594</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.000000358074425763141</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2679.41230483408</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.00553947033540943</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.995580164748676</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.421200776202496</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.52379018850544</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.210201548261998</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.00379483255521</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.04509204261415</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.84188776554423</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.32074386451677</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.331685871772965</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.53820809745099</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0111421709349538</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0256095723709175</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.02594031482461</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.00659436741562958</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.88355254671117</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.000102941272239822</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-14.887935730722</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.000000342177670387599</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2763.73736330231</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.00538688513909037</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.995701908304096</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.520340479201457</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.68260044263639</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.208572761014909</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.49476718181941</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0126039797914435</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.83871027054593</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.31338141576154</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.300129187099122</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.79449752505722</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00519804386598325</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-14.8487241010987</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0000003558615447094</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2679.74498261063</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.00554109596153922</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.995578867706592</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.426586730941913</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.53201939466599</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.206458853589245</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.06620701183693</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0388089370634007</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.861145301089588</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.36586877471121</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.299748117581935</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.87289644397582</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00406727412845909</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>291</v>
+      </c>
+      <c r="B113" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0242082076173834</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.02450360514046</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00670084299967834</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.61271076169752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000303012638436286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0699627051569417</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.07246818297579</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.116461635482227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.600736069584207</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.548015790863029</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.92289726770664</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.84074926776891</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.676734322576979</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.84143600162664</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00449108650854627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.291040311313018</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.747485545286958</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.316531042136563</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.919468464604659</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.357850592977086</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.459292364578541</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.63173052226974</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.239057080259841</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.92126651960828</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0546981157566178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.154469015972304</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.16703811795594</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.118622959640873</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.30218480840432</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.19285321709069</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2.3543990447973</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.5317978208558</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.677030566279733</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.47753729604065</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.000506042644310237</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.196820239673616</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.821338264077606</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.31602380120646</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.622801950113345</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.533414676675772</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.317841844066564</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.72771787221312</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.239408779566374</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.32761147958839</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.184306490214545</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0248379517304575</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.02514898344489</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0065964275960097</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.76536411094431</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.000166306552409678</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.77229272712101</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.88432906826403</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.627145265190114</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.82596844063513</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00471379080234534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>372</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.298477031351828</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.741947323181425</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.316131122896947</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.944155794015656</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.345090041291784</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.497859386206218</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.607830398231959</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.230240743669791</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.16234267780269</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0305917724205344</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.02386130271464</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.56748895751892</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.625329321747219</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.23647273897187</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.00121016784866111</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.220269189209272</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.802302797635612</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.315568068376545</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.698008484643131</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.485171887941761</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.414558458212081</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.660631912912325</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.22847822688965</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1.81443310312585</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0696110731901955</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>291</v>
+      </c>
+      <c r="B113" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0262016681541797</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.02654794963015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0066875967170325</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.91794979016112</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0000893053016232787</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.0433557251936927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.957570697452324</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.116078300144518</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.373504135912695</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.708773267683961</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.408072254114914</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.664930833097847</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.367922686893337</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.10912501091083</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.267376256679289</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.101182168051175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.903768380164559</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.413304802909318</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.244812466099928</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.806601641035626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.870963859465022</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.418547933377247</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.299519530433658</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.90787000835638</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0036389956823447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0309452093126453</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.03142898963501</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.119238168951738</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.25952435855645</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.795230690258828</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.587408442679806</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.555765718754087</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.364674961941648</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.61077261666733</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.10722929159175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.290950471956879</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.747552701923679</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.410334711443532</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.709056445488936</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.478289449689857</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.853050372093682</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.42611314384634</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.30443485258912</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2.80207855585116</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00507745083659469</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0258808410223578</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.02621865802146</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.00664638122499991</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.89397480316188</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0000986148975108702</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.390001507306067</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.677055853967</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.364744306643482</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.06924631914069</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.28495869223818</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>372</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.0975933790465447</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.907017641158712</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.413134481819045</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.236226660667097</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.813256792638756</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>389</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.839259968690426</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.432030120974599</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.286905357871624</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.92521539129274</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00344217880921929</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.600776565467813</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.54838561336778</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.361005636169794</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.66417503017943</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0960774564933442</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.298450402582065</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.741967080588926</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.409263036265656</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.729238597517364</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.465855724861532</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.879679466057591</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.414915884993598</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.286852922848621</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-3.06665679861948</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00216467241713865</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>291</v>
+      </c>
+      <c r="B113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +5413,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -3297,19 +5451,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0248969012463826</v>
+        <v>0.0441192855075659</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02520941726247</v>
+        <v>1.04510701357388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00656541568397232</v>
+        <v>0.0139193395384895</v>
       </c>
       <c r="E6" t="n">
-        <v>3.79212870057286</v>
+        <v>3.16963929111493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000149361468507024</v>
+        <v>0.00152628282814586</v>
       </c>
     </row>
     <row r="7">
@@ -3317,19 +5471,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0287952111171168</v>
+        <v>-0.568385408090172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.971615420130436</v>
+        <v>0.56643926903067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.117782704132111</v>
+        <v>0.177442989446863</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.244477415672327</v>
+        <v>-3.20320013691147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.806861091065266</v>
+        <v>0.00135909494684753</v>
       </c>
     </row>
     <row r="8">
@@ -3337,59 +5491,59 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.17966899724285</v>
+        <v>0.213875463218718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.835546733916546</v>
+        <v>1.23846841031956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.747811986412603</v>
+        <v>0.381255103472671</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.240259584638054</v>
+        <v>0.560977312226456</v>
       </c>
       <c r="F8" t="n">
-        <v>0.810129024237671</v>
+        <v>0.574813003750706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.719935458195016</v>
+        <v>-0.94473424045536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.486783672842992</v>
+        <v>0.3887828799346</v>
       </c>
       <c r="D9" t="n">
-        <v>0.307939430262531</v>
+        <v>0.406632293038752</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.33791254852047</v>
+        <v>-2.32331336351913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019391785175817</v>
+        <v>0.0201623244397555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.774312661314411</v>
+        <v>-0.95544115627991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.461020549381354</v>
+        <v>0.384642419699169</v>
       </c>
       <c r="D10" t="n">
-        <v>0.265251286332673</v>
+        <v>0.450406206369042</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.91916647048143</v>
+        <v>-2.12128772376877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00350968743505059</v>
+        <v>0.0338975968270399</v>
       </c>
     </row>
     <row r="12">
@@ -3407,10 +5561,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -3448,19 +5602,19 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0580525340299564</v>
+        <v>-0.443610609730793</v>
       </c>
       <c r="C39" t="n">
-        <v>1.05977066827196</v>
+        <v>0.641715249857563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.119955559081124</v>
+        <v>0.172569314294051</v>
       </c>
       <c r="E39" t="n">
-        <v>0.483950343565957</v>
+        <v>-2.57062277581343</v>
       </c>
       <c r="F39" t="n">
-        <v>0.628421110489799</v>
+        <v>0.0101515836051926</v>
       </c>
     </row>
     <row r="40">
@@ -3468,59 +5622,59 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00592051855025492</v>
+        <v>0.259612205985651</v>
       </c>
       <c r="C40" t="n">
-        <v>1.00593807945966</v>
+        <v>1.29642724244742</v>
       </c>
       <c r="D40" t="n">
-        <v>0.747465144522155</v>
+        <v>0.377652246392179</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00792079549614294</v>
+        <v>0.687437208346571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.99368018564756</v>
+        <v>0.49180725703245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.686701802023683</v>
+        <v>-0.885457665157495</v>
       </c>
       <c r="C41" t="n">
-        <v>0.503233097343563</v>
+        <v>0.412525331598361</v>
       </c>
       <c r="D41" t="n">
-        <v>0.30678941000189</v>
+        <v>0.409486714468021</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.23834910735495</v>
+        <v>-2.16235993469977</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0251982980651212</v>
+        <v>0.0305904432714433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.655626675310388</v>
+        <v>-0.856452610455239</v>
       </c>
       <c r="C42" t="n">
-        <v>0.519116643048093</v>
+        <v>0.424665868745461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.266455845102815</v>
+        <v>0.446660677504404</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.46054529243825</v>
+        <v>-1.91745692779681</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0138726060677514</v>
+        <v>0.0551799079482704</v>
       </c>
     </row>
     <row r="45">
@@ -3538,10 +5692,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
@@ -3571,7 +5725,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
@@ -3591,7 +5745,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
@@ -3611,7 +5765,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
@@ -3649,19 +5803,19 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0246374902703811</v>
+        <v>0.0343501322025576</v>
       </c>
       <c r="C72" t="n">
-        <v>1.0249435011792</v>
+        <v>1.03494691153879</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0064863080271859</v>
+        <v>0.0135333666804264</v>
       </c>
       <c r="E72" t="n">
-        <v>3.79838425297081</v>
+        <v>2.53818085430575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000145642414368419</v>
+        <v>0.0111430383783552</v>
       </c>
     </row>
     <row r="73">
@@ -3669,59 +5823,59 @@
         <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.154360671333836</v>
+        <v>0.793572969939248</v>
       </c>
       <c r="C73" t="n">
-        <v>0.856962883320082</v>
+        <v>2.21128317662192</v>
       </c>
       <c r="D73" t="n">
-        <v>0.740682394331224</v>
+        <v>0.355797849026932</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.208403321741178</v>
+        <v>2.23040406823589</v>
       </c>
       <c r="F73" t="n">
-        <v>0.834914062895869</v>
+        <v>0.0257206297421258</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.706563213731252</v>
+        <v>-0.340414191678504</v>
       </c>
       <c r="C74" t="n">
-        <v>0.49333678034472</v>
+        <v>0.711475574463276</v>
       </c>
       <c r="D74" t="n">
-        <v>0.302958479192905</v>
+        <v>0.379557558210254</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.33221138293791</v>
+        <v>-0.896871065573494</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0196895736471102</v>
+        <v>0.369787721303058</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.750643581846305</v>
+        <v>-0.324542520505411</v>
       </c>
       <c r="C75" t="n">
-        <v>0.472062644008431</v>
+        <v>0.722857970710142</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246694826630503</v>
+        <v>0.419735111194976</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.04280228369204</v>
+        <v>-0.773207939601351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00234386277068456</v>
+        <v>0.43939932809833</v>
       </c>
     </row>
     <row r="78">
@@ -3739,10 +5893,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
@@ -3772,7 +5926,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89">
@@ -3792,7 +5946,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -3812,7 +5966,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
@@ -3850,59 +6004,59 @@
         <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.0437944236378201</v>
+        <v>0.698940580854104</v>
       </c>
       <c r="C105" t="n">
-        <v>0.957150704809006</v>
+        <v>2.01162042898484</v>
       </c>
       <c r="D105" t="n">
-        <v>0.740259432213668</v>
+        <v>0.351781594528415</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.0591609126909163</v>
+        <v>1.98685943700686</v>
       </c>
       <c r="F105" t="n">
-        <v>0.952823942238634</v>
+        <v>0.0469379757785751</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.711360395830709</v>
+        <v>-0.39479397592937</v>
       </c>
       <c r="C106" t="n">
-        <v>0.490975821475578</v>
+        <v>0.673818847851322</v>
       </c>
       <c r="D106" t="n">
-        <v>0.302621278892524</v>
+        <v>0.377807334871067</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.35066218222992</v>
+        <v>-1.04496112036602</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0187400389303194</v>
+        <v>0.296040939223111</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.705333556964606</v>
+        <v>-0.375929658746799</v>
       </c>
       <c r="C107" t="n">
-        <v>0.493943788384193</v>
+        <v>0.686650631209515</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246496687462472</v>
+        <v>0.417885917866329</v>
       </c>
       <c r="E107" t="n">
-        <v>-2.86143219296604</v>
+        <v>-0.899598772474187</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00421731705628407</v>
+        <v>0.368333810697182</v>
       </c>
     </row>
     <row r="111">
@@ -3920,15 +6074,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
@@ -3953,7 +6107,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
@@ -3973,7 +6127,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126">
@@ -3993,17 +6147,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +6176,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -4060,19 +6214,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0473592165207089</v>
+        <v>0.0418516901362407</v>
       </c>
       <c r="C6" t="n">
-        <v>1.04849857945214</v>
+        <v>1.04273981868179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0150721637708326</v>
+        <v>0.0137802207109969</v>
       </c>
       <c r="E6" t="n">
-        <v>3.14216440590685</v>
+        <v>3.03708416679004</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0016770383993802</v>
+        <v>0.00238878744961405</v>
       </c>
     </row>
     <row r="7">
@@ -4080,79 +6234,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.491476288414306</v>
+        <v>-0.0697981127998357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.611722648195387</v>
+        <v>0.932582077286438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17843621728978</v>
+        <v>0.177329183485037</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.75435276469771</v>
+        <v>-0.393607591418956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00588083435961011</v>
+        <v>0.693870775628758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.402167918339249</v>
+        <v>1.40465594600056</v>
       </c>
       <c r="C8" t="n">
-        <v>1.49506235998797</v>
+        <v>4.07412478118119</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531286948910219</v>
+        <v>0.626936519477401</v>
       </c>
       <c r="E8" t="n">
-        <v>0.756969316043204</v>
+        <v>2.24050745547803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.449068245629538</v>
+        <v>0.0250579973108608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
-        <v>1.07248855182981</v>
+        <v>2.2246928992086</v>
       </c>
       <c r="C9" t="n">
-        <v>2.92264360777181</v>
+        <v>9.25064148832205</v>
       </c>
       <c r="D9" t="n">
-        <v>1.12320973180268</v>
+        <v>0.408708193910063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.954842645556977</v>
+        <v>5.44323048169214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.339657277703562</v>
+        <v>0.0000000523228756340132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
-        <v>1.21727850079916</v>
+        <v>2.51681928594504</v>
       </c>
       <c r="C10" t="n">
-        <v>3.37798203724073</v>
+        <v>12.3891276545776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.724406050049911</v>
+        <v>0.760669706274839</v>
       </c>
       <c r="E10" t="n">
-        <v>1.68038146660328</v>
+        <v>3.30868873202594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0928831196328962</v>
+        <v>0.000937339845529871</v>
       </c>
     </row>
     <row r="12">
@@ -4170,10 +6324,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -4211,79 +6365,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.33806419970641</v>
+        <v>0.0194146822263785</v>
       </c>
       <c r="C39" t="n">
-        <v>0.713149502439908</v>
+        <v>1.01960437277458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.168098518293201</v>
+        <v>0.166188087585948</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.01110755251722</v>
+        <v>0.116823549198963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.044314097616557</v>
+        <v>0.906999881965481</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228646902177417</v>
+        <v>1.05614177915092</v>
       </c>
       <c r="C40" t="n">
-        <v>1.25689815264589</v>
+        <v>2.87525618800576</v>
       </c>
       <c r="D40" t="n">
-        <v>0.531390494462799</v>
+        <v>0.609100570401868</v>
       </c>
       <c r="E40" t="n">
-        <v>0.430280376784994</v>
+        <v>1.73393661157485</v>
       </c>
       <c r="F40" t="n">
-        <v>0.666991699787766</v>
+        <v>0.0829293309044909</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B41" t="n">
-        <v>1.08868182751458</v>
+        <v>2.19565624940727</v>
       </c>
       <c r="C41" t="n">
-        <v>2.97035604919914</v>
+        <v>8.98589611129166</v>
       </c>
       <c r="D41" t="n">
-        <v>1.12208385528693</v>
+        <v>0.408255246135327</v>
       </c>
       <c r="E41" t="n">
-        <v>0.970232146541487</v>
+        <v>5.378145829581</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331930790480426</v>
+        <v>0.0000000752568501159182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="B42" t="n">
-        <v>0.827883534761286</v>
+        <v>2.87641568167463</v>
       </c>
       <c r="C42" t="n">
-        <v>2.28847014362216</v>
+        <v>17.7505354501955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.714045596961552</v>
+        <v>0.759638516422561</v>
       </c>
       <c r="E42" t="n">
-        <v>1.15942670647945</v>
+        <v>3.78655850050997</v>
       </c>
       <c r="F42" t="n">
-        <v>0.24628229603484</v>
+        <v>0.000152748147207052</v>
       </c>
     </row>
     <row r="45">
@@ -4301,10 +6455,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50">
@@ -4334,7 +6488,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
@@ -4354,7 +6508,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -4374,7 +6528,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -4412,79 +6566,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0338130091868756</v>
+        <v>0.0411342605488127</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03439116699755</v>
+        <v>1.04199199457153</v>
       </c>
       <c r="D72" t="n">
-        <v>0.013695599557875</v>
+        <v>0.0136898470580406</v>
       </c>
       <c r="E72" t="n">
-        <v>2.46889587009231</v>
+        <v>3.00472754548802</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0135530650597995</v>
+        <v>0.00265818843920679</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0865514195900595</v>
+        <v>1.4164070635237</v>
       </c>
       <c r="C73" t="n">
-        <v>1.09040743457958</v>
+        <v>4.12228270080433</v>
       </c>
       <c r="D73" t="n">
-        <v>0.524565956218974</v>
+        <v>0.626589910564626</v>
       </c>
       <c r="E73" t="n">
-        <v>0.164996257503851</v>
+        <v>2.26050091079086</v>
       </c>
       <c r="F73" t="n">
-        <v>0.868946927764332</v>
+        <v>0.0237901799693152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20482652475252</v>
+        <v>2.23202134454312</v>
       </c>
       <c r="C74" t="n">
-        <v>3.3361802831653</v>
+        <v>9.31868332469601</v>
       </c>
       <c r="D74" t="n">
-        <v>1.12208978653311</v>
+        <v>0.408312238742405</v>
       </c>
       <c r="E74" t="n">
-        <v>1.07373450789089</v>
+        <v>5.46645711972216</v>
       </c>
       <c r="F74" t="n">
-        <v>0.282941690456105</v>
+        <v>0.0000000459119424831192</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297342813096026</v>
+        <v>2.53136745926426</v>
       </c>
       <c r="C75" t="n">
-        <v>1.34627674164728</v>
+        <v>12.5706842874676</v>
       </c>
       <c r="D75" t="n">
-        <v>0.647322579824971</v>
+        <v>0.75994089129837</v>
       </c>
       <c r="E75" t="n">
-        <v>0.459342563295759</v>
+        <v>3.33100572458916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.645988187129626</v>
+        <v>0.000865328228538427</v>
       </c>
     </row>
     <row r="78">
@@ -4502,10 +6656,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -4535,7 +6689,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
@@ -4555,7 +6709,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
@@ -4575,7 +6729,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
@@ -4610,62 +6764,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0106009429951097</v>
+        <v>1.051446315522</v>
       </c>
       <c r="C105" t="n">
-        <v>1.01065733207429</v>
+        <v>2.8617871735313</v>
       </c>
       <c r="D105" t="n">
-        <v>0.523784666282351</v>
+        <v>0.607658717595898</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0202391243530507</v>
+        <v>1.73032375752277</v>
       </c>
       <c r="F105" t="n">
-        <v>0.983852617549655</v>
+        <v>0.0835724472066994</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>1.17909473832375</v>
+        <v>2.19246276922522</v>
       </c>
       <c r="C106" t="n">
-        <v>3.25142947571906</v>
+        <v>8.95724560190809</v>
       </c>
       <c r="D106" t="n">
-        <v>1.12139485904552</v>
+        <v>0.407291418331929</v>
       </c>
       <c r="E106" t="n">
-        <v>1.05145366844943</v>
+        <v>5.38303207615936</v>
       </c>
       <c r="F106" t="n">
-        <v>0.293050277962184</v>
+        <v>0.0000000732414803025716</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209738490241024</v>
+        <v>2.87416645714788</v>
       </c>
       <c r="C107" t="n">
-        <v>1.23335548328494</v>
+        <v>17.7106553769303</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646865967109518</v>
+        <v>0.759380205696872</v>
       </c>
       <c r="E107" t="n">
-        <v>0.324237942487882</v>
+        <v>3.78488461456577</v>
       </c>
       <c r="F107" t="n">
-        <v>0.745757898416936</v>
+        <v>0.000153779910695775</v>
       </c>
     </row>
     <row r="111">
@@ -4683,15 +6837,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117">
@@ -4716,7 +6870,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
@@ -4736,7 +6890,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126">
@@ -4756,17 +6910,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +6939,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
@@ -4823,19 +6977,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0441192855075659</v>
+        <v>0.036947188901135</v>
       </c>
       <c r="C6" t="n">
-        <v>1.04510701357388</v>
+        <v>1.03763822057649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0139193395384895</v>
+        <v>0.0132097022563191</v>
       </c>
       <c r="E6" t="n">
-        <v>3.16963929111493</v>
+        <v>2.79697363227551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00152628282814586</v>
+        <v>0.00515837428739218</v>
       </c>
     </row>
     <row r="7">
@@ -4843,79 +6997,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.568385408090172</v>
+        <v>-0.0860612064827584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.56643926903067</v>
+        <v>0.917538070223385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.177442989446863</v>
+        <v>0.175329311361918</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.20320013691147</v>
+        <v>-0.490854642696391</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00135909494684753</v>
+        <v>0.623529259204511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="B8" t="n">
-        <v>0.213875463218718</v>
+        <v>-15.2659132303192</v>
       </c>
       <c r="C8" t="n">
-        <v>1.23846841031956</v>
+        <v>0.000000234475852138142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.381255103472671</v>
+        <v>3037.12284104916</v>
       </c>
       <c r="E8" t="n">
-        <v>0.560977312226456</v>
+        <v>-0.00502643917591614</v>
       </c>
       <c r="F8" t="n">
-        <v>0.574813003750706</v>
+        <v>0.995989498673342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.94473424045536</v>
+        <v>2.27331597421638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3887828799346</v>
+        <v>9.71155073229307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.406632293038752</v>
+        <v>0.408327995678119</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.32331336351913</v>
+        <v>5.56737720234205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0201623244397555</v>
+        <v>0.0000000258602196377649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.95544115627991</v>
+        <v>1.93893850153307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.384642419699169</v>
+        <v>6.95136818625057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.450406206369042</v>
+        <v>0.743833262745764</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.12128772376877</v>
+        <v>2.60668431843949</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0338975968270399</v>
+        <v>0.00914236040769786</v>
       </c>
     </row>
     <row r="12">
@@ -4933,10 +7087,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35">
@@ -4974,79 +7128,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.443610609730793</v>
+        <v>-0.00559286118269066</v>
       </c>
       <c r="C39" t="n">
-        <v>0.641715249857563</v>
+        <v>0.994422749748597</v>
       </c>
       <c r="D39" t="n">
-        <v>0.172569314294051</v>
+        <v>0.165306876045289</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.57062277581343</v>
+        <v>-0.0338332035332782</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0101515836051926</v>
+        <v>0.97301015850393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="B40" t="n">
-        <v>0.259612205985651</v>
+        <v>-15.6564526087818</v>
       </c>
       <c r="C40" t="n">
-        <v>1.29642724244742</v>
+        <v>0.000000158667882470726</v>
       </c>
       <c r="D40" t="n">
-        <v>0.377652246392179</v>
+        <v>2956.85451061392</v>
       </c>
       <c r="E40" t="n">
-        <v>0.687437208346571</v>
+        <v>-0.00529496887742749</v>
       </c>
       <c r="F40" t="n">
-        <v>0.49180725703245</v>
+        <v>0.995775245824136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.885457665157495</v>
+        <v>2.36676624504546</v>
       </c>
       <c r="C41" t="n">
-        <v>0.412525331598361</v>
+        <v>10.6628554108007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.409486714468021</v>
+        <v>0.407882807605141</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.16235993469977</v>
+        <v>5.80256436632321</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0305904432714433</v>
+        <v>0.00000000653083106614727</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.856452610455239</v>
+        <v>1.8194396799165</v>
       </c>
       <c r="C42" t="n">
-        <v>0.424665868745461</v>
+        <v>6.16840120231461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.446660677504404</v>
+        <v>0.742717943217547</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.91745692779681</v>
+        <v>2.44970475876004</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0551799079482704</v>
+        <v>0.0142973393180779</v>
       </c>
     </row>
     <row r="45">
@@ -5064,10 +7218,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
@@ -5097,7 +7251,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
@@ -5117,7 +7271,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -5137,7 +7291,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68">
@@ -5175,79 +7329,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0343501322025576</v>
+        <v>0.0360551511481458</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03494691153879</v>
+        <v>1.03671302082769</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0135333666804264</v>
+        <v>0.0131143267358209</v>
       </c>
       <c r="E72" t="n">
-        <v>2.53818085430575</v>
+        <v>2.74929486465086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0111430383783552</v>
+        <v>0.00597236329584945</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="B73" t="n">
-        <v>0.793572969939248</v>
+        <v>-15.2569589376324</v>
       </c>
       <c r="C73" t="n">
-        <v>2.21128317662192</v>
+        <v>0.000000236584845727659</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355797849026932</v>
+        <v>3034.88571504163</v>
       </c>
       <c r="E73" t="n">
-        <v>2.23040406823589</v>
+        <v>-0.00502719389465481</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0257206297421257</v>
+        <v>0.995988896502521</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.340414191678504</v>
+        <v>2.27705569767478</v>
       </c>
       <c r="C74" t="n">
-        <v>0.711475574463276</v>
+        <v>9.74793724171847</v>
       </c>
       <c r="D74" t="n">
-        <v>0.379557558210254</v>
+        <v>0.408006894949932</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.896871065573494</v>
+        <v>5.58092455264564</v>
       </c>
       <c r="F74" t="n">
-        <v>0.369787721303058</v>
+        <v>0.0000000239243413359462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.324542520505411</v>
+        <v>1.96736823105448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.722857970710142</v>
+        <v>7.15182973567347</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419735111194976</v>
+        <v>0.742013044528875</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.773207939601351</v>
+        <v>2.65139305240061</v>
       </c>
       <c r="F75" t="n">
-        <v>0.43939932809833</v>
+        <v>0.00801604952142733</v>
       </c>
     </row>
     <row r="78">
@@ -5265,10 +7419,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
@@ -5298,7 +7452,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89">
@@ -5318,7 +7472,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93">
@@ -5338,7 +7492,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
@@ -5373,62 +7527,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="B105" t="n">
-        <v>0.698940580854104</v>
+        <v>-15.6552874270571</v>
       </c>
       <c r="C105" t="n">
-        <v>2.01162042898484</v>
+        <v>0.00000015885286713713</v>
       </c>
       <c r="D105" t="n">
-        <v>0.351781594528415</v>
+        <v>2956.8197225336</v>
       </c>
       <c r="E105" t="n">
-        <v>1.98685943700686</v>
+        <v>-0.00529463710883348</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0469379757785751</v>
+        <v>0.995775510533464</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.39479397592937</v>
+        <v>2.36697059682174</v>
       </c>
       <c r="C106" t="n">
-        <v>0.673818847851322</v>
+        <v>10.6650346068979</v>
       </c>
       <c r="D106" t="n">
-        <v>0.377807334871067</v>
+        <v>0.407822822405505</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.04496112036602</v>
+        <v>5.80391892454764</v>
       </c>
       <c r="F106" t="n">
-        <v>0.296040939223111</v>
+        <v>0.00000000647826106942813</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.375929658746799</v>
+        <v>1.82169580539208</v>
       </c>
       <c r="C107" t="n">
-        <v>0.686650631209515</v>
+        <v>6.18233360011982</v>
       </c>
       <c r="D107" t="n">
-        <v>0.417885917866329</v>
+        <v>0.739753462202157</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.899598772474187</v>
+        <v>2.46257151669032</v>
       </c>
       <c r="F107" t="n">
-        <v>0.368333810697182</v>
+        <v>0.0137944659193291</v>
       </c>
     </row>
     <row r="111">
@@ -5446,15 +7600,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117">
@@ -5479,7 +7633,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
@@ -5499,7 +7653,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
@@ -5519,17 +7673,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5548,7 +7702,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -5623,7 +7777,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
         <v>0.746467160653709</v>
@@ -5643,7 +7797,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B9" t="n">
         <v>-0.125806254137125</v>
@@ -5663,7 +7817,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="B10" t="n">
         <v>0.70204905544932</v>
@@ -5696,10 +7850,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
@@ -5754,7 +7908,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="B40" t="n">
         <v>0.79137087203777</v>
@@ -5774,7 +7928,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B41" t="n">
         <v>0.0232163853788057</v>
@@ -5794,7 +7948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="B42" t="n">
         <v>0.706238381950526</v>
@@ -5827,10 +7981,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50">
@@ -5860,7 +8014,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56">
@@ -5880,7 +8034,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60">
@@ -5900,7 +8054,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68">
@@ -5955,7 +8109,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="B73" t="n">
         <v>0.791991551327124</v>
@@ -5975,7 +8129,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B74" t="n">
         <v>-0.110220999885999</v>
@@ -5995,7 +8149,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="B75" t="n">
         <v>0.724170231619211</v>
@@ -6028,10 +8182,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -6061,7 +8215,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89">
@@ -6081,7 +8235,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93">
@@ -6101,7 +8255,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101">
@@ -6136,7 +8290,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="B105" t="n">
         <v>1.03421651989292</v>
@@ -6156,7 +8310,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B106" t="n">
         <v>0.12631754252712</v>
@@ -6176,7 +8330,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="B107" t="n">
         <v>0.82383385850419</v>
@@ -6209,10 +8363,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116">
@@ -6242,7 +8396,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122">
@@ -6262,7 +8416,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126">
@@ -6282,7 +8436,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134">
@@ -6292,7 +8446,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6311,7 +8465,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -6349,19 +8503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0418516901362407</v>
+        <v>0.0258419631506758</v>
       </c>
       <c r="C6" t="n">
-        <v>1.04273981868179</v>
+        <v>1.0261787615997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0137802207109969</v>
+        <v>0.00661169442191517</v>
       </c>
       <c r="E6" t="n">
-        <v>3.03708416679004</v>
+        <v>3.90852351932961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00238878744961405</v>
+        <v>0.0000928619083376924</v>
       </c>
     </row>
     <row r="7">
@@ -6369,79 +8523,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0697981127998357</v>
+        <v>-0.0427934166115103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.932582077286438</v>
+        <v>0.958109299089518</v>
       </c>
       <c r="D7" t="n">
-        <v>0.177329183485037</v>
+        <v>0.118447831975288</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.393607591418956</v>
+        <v>-0.361284929389323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.693870775628758</v>
+        <v>0.717886458585796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B8" t="n">
-        <v>1.40465594600056</v>
+        <v>-14.9049280777236</v>
       </c>
       <c r="C8" t="n">
-        <v>4.07412478118119</v>
+        <v>0.00000033641239021828</v>
       </c>
       <c r="D8" t="n">
-        <v>0.626936519477401</v>
+        <v>2756.68505792883</v>
       </c>
       <c r="E8" t="n">
-        <v>2.24050745547803</v>
+        <v>-0.00540683021981557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0250579973108608</v>
+        <v>0.995685994663875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="B9" t="n">
-        <v>2.2246928992086</v>
+        <v>0.528607391908917</v>
       </c>
       <c r="C9" t="n">
-        <v>9.25064148832205</v>
+        <v>1.69656800839328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.408708193910063</v>
+        <v>0.209711457284227</v>
       </c>
       <c r="E9" t="n">
-        <v>5.44323048169214</v>
+        <v>2.5206414506599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000523228756340133</v>
+        <v>0.0117141146132914</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B10" t="n">
-        <v>2.51681928594504</v>
+        <v>0.883750068670631</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3891276545776</v>
+        <v>2.41995771934428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.760669706274839</v>
+        <v>0.325491226260329</v>
       </c>
       <c r="E10" t="n">
-        <v>3.30868873202594</v>
+        <v>2.71512715972198</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00093733984552987</v>
+        <v>0.00662503271567506</v>
       </c>
     </row>
     <row r="12">
@@ -6459,10 +8613,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
@@ -6500,79 +8654,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0194146822263785</v>
+        <v>0.0165713890004796</v>
       </c>
       <c r="C39" t="n">
-        <v>1.01960437277458</v>
+        <v>1.01670945606719</v>
       </c>
       <c r="D39" t="n">
-        <v>0.166188087585948</v>
+        <v>0.122616096289379</v>
       </c>
       <c r="E39" t="n">
-        <v>0.116823549198963</v>
+        <v>0.135148561257165</v>
       </c>
       <c r="F39" t="n">
-        <v>0.906999881965481</v>
+        <v>0.892494416017355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B40" t="n">
-        <v>1.05614177915092</v>
+        <v>-14.8425249789594</v>
       </c>
       <c r="C40" t="n">
-        <v>2.87525618800576</v>
+        <v>0.000000358074425763141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.609100570401868</v>
+        <v>2679.41230483408</v>
       </c>
       <c r="E40" t="n">
-        <v>1.73393661157485</v>
+        <v>-0.00553947033540943</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0829293309044909</v>
+        <v>0.995580164748676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="B41" t="n">
-        <v>2.19565624940727</v>
+        <v>0.421200776202496</v>
       </c>
       <c r="C41" t="n">
-        <v>8.98589611129166</v>
+        <v>1.52379018850544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.408255246135327</v>
+        <v>0.210201548261998</v>
       </c>
       <c r="E41" t="n">
-        <v>5.378145829581</v>
+        <v>2.00379483255521</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0000000752568501159183</v>
+        <v>0.04509204261415</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B42" t="n">
-        <v>2.87641568167463</v>
+        <v>0.84188776554423</v>
       </c>
       <c r="C42" t="n">
-        <v>17.7505354501955</v>
+        <v>2.32074386451677</v>
       </c>
       <c r="D42" t="n">
-        <v>0.759638516422561</v>
+        <v>0.331685871772965</v>
       </c>
       <c r="E42" t="n">
-        <v>3.78655850050997</v>
+        <v>2.53820809745099</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000152748147207052</v>
+        <v>0.0111421709349538</v>
       </c>
     </row>
     <row r="45">
@@ -6590,10 +8744,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50">
@@ -6623,7 +8777,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56">
@@ -6643,7 +8797,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60">
@@ -6663,7 +8817,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68">
@@ -6701,79 +8855,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0411342605488127</v>
+        <v>0.0256095723709175</v>
       </c>
       <c r="C72" t="n">
-        <v>1.04199199457153</v>
+        <v>1.02594031482461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0136898470580406</v>
+        <v>0.00659436741562958</v>
       </c>
       <c r="E72" t="n">
-        <v>3.00472754548802</v>
+        <v>3.88355254671117</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00265818843920679</v>
+        <v>0.000102941272239822</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B73" t="n">
-        <v>1.4164070635237</v>
+        <v>-14.887935730722</v>
       </c>
       <c r="C73" t="n">
-        <v>4.12228270080433</v>
+        <v>0.000000342177670387599</v>
       </c>
       <c r="D73" t="n">
-        <v>0.626589910564626</v>
+        <v>2763.73736330231</v>
       </c>
       <c r="E73" t="n">
-        <v>2.26050091079086</v>
+        <v>-0.00538688513909037</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0237901799693152</v>
+        <v>0.995701908304096</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="B74" t="n">
-        <v>2.23202134454312</v>
+        <v>0.520340479201457</v>
       </c>
       <c r="C74" t="n">
-        <v>9.31868332469601</v>
+        <v>1.68260044263639</v>
       </c>
       <c r="D74" t="n">
-        <v>0.408312238742405</v>
+        <v>0.208572761014909</v>
       </c>
       <c r="E74" t="n">
-        <v>5.46645711972216</v>
+        <v>2.49476718181941</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0000000459119424831193</v>
+        <v>0.0126039797914435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B75" t="n">
-        <v>2.53136745926426</v>
+        <v>0.83871027054593</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5706842874676</v>
+        <v>2.31338141576154</v>
       </c>
       <c r="D75" t="n">
-        <v>0.75994089129837</v>
+        <v>0.300129187099122</v>
       </c>
       <c r="E75" t="n">
-        <v>3.33100572458916</v>
+        <v>2.79449752505722</v>
       </c>
       <c r="F75" t="n">
-        <v>0.000865328228538427</v>
+        <v>0.00519804386598325</v>
       </c>
     </row>
     <row r="78">
@@ -6791,10 +8945,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
@@ -6824,7 +8978,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89">
@@ -6844,7 +8998,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93">
@@ -6864,7 +9018,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
@@ -6899,62 +9053,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B105" t="n">
-        <v>1.051446315522</v>
+        <v>-14.8487241010987</v>
       </c>
       <c r="C105" t="n">
-        <v>2.8617871735313</v>
+        <v>0.0000003558615447094</v>
       </c>
       <c r="D105" t="n">
-        <v>0.607658717595898</v>
+        <v>2679.74498261063</v>
       </c>
       <c r="E105" t="n">
-        <v>1.73032375752277</v>
+        <v>-0.00554109596153922</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0835724472066994</v>
+        <v>0.995578867706592</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="B106" t="n">
-        <v>2.19246276922522</v>
+        <v>0.426586730941913</v>
       </c>
       <c r="C106" t="n">
-        <v>8.95724560190809</v>
+        <v>1.53201939466599</v>
       </c>
       <c r="D106" t="n">
-        <v>0.407291418331929</v>
+        <v>0.206458853589245</v>
       </c>
       <c r="E106" t="n">
-        <v>5.38303207615936</v>
+        <v>2.06620701183693</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0000000732414803025716</v>
+        <v>0.0388089370634007</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B107" t="n">
-        <v>2.87416645714788</v>
+        <v>0.861145301089588</v>
       </c>
       <c r="C107" t="n">
-        <v>17.7106553769303</v>
+        <v>2.36586877471121</v>
       </c>
       <c r="D107" t="n">
-        <v>0.759380205696872</v>
+        <v>0.299748117581935</v>
       </c>
       <c r="E107" t="n">
-        <v>3.78488461456577</v>
+        <v>2.87289644397582</v>
       </c>
       <c r="F107" t="n">
-        <v>0.000153779910695775</v>
+        <v>0.00406727412845909</v>
       </c>
     </row>
     <row r="111">
@@ -6972,10 +9126,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="B113" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116">
@@ -7005,7 +9159,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122">
@@ -7025,7 +9179,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126">
@@ -7045,7 +9199,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134">
@@ -7055,7 +9209,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7074,7 +9228,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
@@ -7112,19 +9266,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.036947188901135</v>
+        <v>0.0441192855075659</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03763822057649</v>
+        <v>1.04510701357388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0132097022563191</v>
+        <v>0.0139193395384895</v>
       </c>
       <c r="E6" t="n">
-        <v>2.79697363227551</v>
+        <v>3.16963929111493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00515837428739218</v>
+        <v>0.00152628282814586</v>
       </c>
     </row>
     <row r="7">
@@ -7132,79 +9286,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0860612064827584</v>
+        <v>-0.568385408090172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.917538070223385</v>
+        <v>0.56643926903067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175329311361918</v>
+        <v>0.177442989446863</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.490854642696391</v>
+        <v>-3.20320013691147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.623529259204511</v>
+        <v>0.00135909494684753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>-15.2659132303192</v>
+        <v>0.213875463218718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000000234475852138142</v>
+        <v>1.23846841031956</v>
       </c>
       <c r="D8" t="n">
-        <v>3037.12284104916</v>
+        <v>0.381255103472671</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00502643917591614</v>
+        <v>0.560977312226456</v>
       </c>
       <c r="F8" t="n">
-        <v>0.995989498673342</v>
+        <v>0.574813003750706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="B9" t="n">
-        <v>2.27331597421638</v>
+        <v>-0.94473424045536</v>
       </c>
       <c r="C9" t="n">
-        <v>9.71155073229307</v>
+        <v>0.3887828799346</v>
       </c>
       <c r="D9" t="n">
-        <v>0.408327995678119</v>
+        <v>0.406632293038752</v>
       </c>
       <c r="E9" t="n">
-        <v>5.56737720234205</v>
+        <v>-2.32331336351913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000258602196377649</v>
+        <v>0.0201623244397555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="B10" t="n">
-        <v>1.93893850153307</v>
+        <v>-0.95544115627991</v>
       </c>
       <c r="C10" t="n">
-        <v>6.95136818625057</v>
+        <v>0.384642419699169</v>
       </c>
       <c r="D10" t="n">
-        <v>0.743833262745764</v>
+        <v>0.450406206369042</v>
       </c>
       <c r="E10" t="n">
-        <v>2.60668431843949</v>
+        <v>-2.12128772376877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00914236040769786</v>
+        <v>0.0338975968270399</v>
       </c>
     </row>
     <row r="12">
@@ -7222,10 +9376,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -7263,79 +9417,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.00559286118269066</v>
+        <v>-0.443610609730793</v>
       </c>
       <c r="C39" t="n">
-        <v>0.994422749748597</v>
+        <v>0.641715249857563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.165306876045289</v>
+        <v>0.172569314294051</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0338332035332782</v>
+        <v>-2.57062277581343</v>
       </c>
       <c r="F39" t="n">
-        <v>0.97301015850393</v>
+        <v>0.0101515836051926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>-15.6564526087818</v>
+        <v>0.259612205985651</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000000158667882470726</v>
+        <v>1.29642724244742</v>
       </c>
       <c r="D40" t="n">
-        <v>2956.85451061392</v>
+        <v>0.377652246392179</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.00529496887742749</v>
+        <v>0.687437208346571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.995775245824136</v>
+        <v>0.49180725703245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="B41" t="n">
-        <v>2.36676624504546</v>
+        <v>-0.885457665157495</v>
       </c>
       <c r="C41" t="n">
-        <v>10.6628554108007</v>
+        <v>0.412525331598361</v>
       </c>
       <c r="D41" t="n">
-        <v>0.407882807605141</v>
+        <v>0.409486714468021</v>
       </c>
       <c r="E41" t="n">
-        <v>5.80256436632321</v>
+        <v>-2.16235993469977</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00000000653083106614727</v>
+        <v>0.0305904432714433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="B42" t="n">
-        <v>1.8194396799165</v>
+        <v>-0.856452610455239</v>
       </c>
       <c r="C42" t="n">
-        <v>6.16840120231461</v>
+        <v>0.424665868745461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.742717943217547</v>
+        <v>0.446660677504404</v>
       </c>
       <c r="E42" t="n">
-        <v>2.44970475876004</v>
+        <v>-1.91745692779681</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0142973393180779</v>
+        <v>0.0551799079482704</v>
       </c>
     </row>
     <row r="45">
@@ -7353,10 +9507,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
@@ -7386,7 +9540,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
@@ -7406,7 +9560,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
@@ -7426,7 +9580,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>359</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
@@ -7464,79 +9618,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0360551511481458</v>
+        <v>0.0343501322025576</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03671302082769</v>
+        <v>1.03494691153879</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0131143267358209</v>
+        <v>0.0135333666804264</v>
       </c>
       <c r="E72" t="n">
-        <v>2.74929486465086</v>
+        <v>2.53818085430575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00597236329584945</v>
+        <v>0.0111430383783552</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>-15.2569589376324</v>
+        <v>0.793572969939248</v>
       </c>
       <c r="C73" t="n">
-        <v>0.000000236584845727659</v>
+        <v>2.21128317662192</v>
       </c>
       <c r="D73" t="n">
-        <v>3034.88571504163</v>
+        <v>0.355797849026932</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.00502719389465481</v>
+        <v>2.23040406823589</v>
       </c>
       <c r="F73" t="n">
-        <v>0.995988896502521</v>
+        <v>0.0257206297421258</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="B74" t="n">
-        <v>2.27705569767478</v>
+        <v>-0.340414191678504</v>
       </c>
       <c r="C74" t="n">
-        <v>9.74793724171847</v>
+        <v>0.711475574463276</v>
       </c>
       <c r="D74" t="n">
-        <v>0.408006894949932</v>
+        <v>0.379557558210254</v>
       </c>
       <c r="E74" t="n">
-        <v>5.58092455264564</v>
+        <v>-0.896871065573494</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0000000239243413359462</v>
+        <v>0.369787721303058</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="B75" t="n">
-        <v>1.96736823105448</v>
+        <v>-0.324542520505411</v>
       </c>
       <c r="C75" t="n">
-        <v>7.15182973567347</v>
+        <v>0.722857970710142</v>
       </c>
       <c r="D75" t="n">
-        <v>0.742013044528875</v>
+        <v>0.419735111194976</v>
       </c>
       <c r="E75" t="n">
-        <v>2.65139305240061</v>
+        <v>-0.773207939601351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00801604952142733</v>
+        <v>0.43939932809833</v>
       </c>
     </row>
     <row r="78">
@@ -7554,10 +9708,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
@@ -7587,7 +9741,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89">
@@ -7607,7 +9761,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -7627,7 +9781,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
@@ -7662,62 +9816,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>-15.6552874270571</v>
+        <v>0.698940580854104</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00000015885286713713</v>
+        <v>2.01162042898484</v>
       </c>
       <c r="D105" t="n">
-        <v>2956.8197225336</v>
+        <v>0.351781594528415</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.00529463710883348</v>
+        <v>1.98685943700686</v>
       </c>
       <c r="F105" t="n">
-        <v>0.995775510533464</v>
+        <v>0.0469379757785751</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="B106" t="n">
-        <v>2.36697059682174</v>
+        <v>-0.39479397592937</v>
       </c>
       <c r="C106" t="n">
-        <v>10.6650346068979</v>
+        <v>0.673818847851322</v>
       </c>
       <c r="D106" t="n">
-        <v>0.407822822405505</v>
+        <v>0.377807334871067</v>
       </c>
       <c r="E106" t="n">
-        <v>5.80391892454764</v>
+        <v>-1.04496112036602</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00000000647826106942812</v>
+        <v>0.296040939223111</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="B107" t="n">
-        <v>1.82169580539208</v>
+        <v>-0.375929658746799</v>
       </c>
       <c r="C107" t="n">
-        <v>6.18233360011982</v>
+        <v>0.686650631209515</v>
       </c>
       <c r="D107" t="n">
-        <v>0.739753462202157</v>
+        <v>0.417885917866329</v>
       </c>
       <c r="E107" t="n">
-        <v>2.46257151669032</v>
+        <v>-0.899598772474187</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0137944659193291</v>
+        <v>0.368333810697182</v>
       </c>
     </row>
     <row r="111">
@@ -7735,15 +9889,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
@@ -7768,7 +9922,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
@@ -7788,7 +9942,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>366</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126">
@@ -7808,17 +9962,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>367</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -7837,7 +9991,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -7875,19 +10029,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0363136047367352</v>
+        <v>0.0380620398631838</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03698099765656</v>
+        <v>1.03879567762112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0131742769249198</v>
+        <v>0.0126976246778495</v>
       </c>
       <c r="E6" t="n">
-        <v>2.75640211175812</v>
+        <v>2.99757165838911</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00584411023440403</v>
+        <v>0.00272139871829007</v>
       </c>
     </row>
     <row r="7">
@@ -7895,79 +10049,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0778060115129838</v>
+        <v>-0.0384924959435302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.925143876398228</v>
+        <v>0.962238925407959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18195071072264</v>
+        <v>0.171885563061119</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.42762136626984</v>
+        <v>-0.223942577014702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.668926807613216</v>
+        <v>0.822801985278883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.914197038728002</v>
+        <v>0.746467160653709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.400838354580834</v>
+        <v>2.10953419120381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.497759767496699</v>
+        <v>0.64046933360678</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.83662300254924</v>
+        <v>1.16550023784903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0662655691415196</v>
+        <v>0.243816563998857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B9" t="n">
-        <v>-13.8516267106784</v>
+        <v>-0.125806254137125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000000964528254401801</v>
+        <v>0.881785672560489</v>
       </c>
       <c r="D9" t="n">
-        <v>3674.76947569592</v>
+        <v>0.264811229993239</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.00376938657031139</v>
+        <v>-0.475078999256704</v>
       </c>
       <c r="F9" t="n">
-        <v>0.996992471773817</v>
+        <v>0.634730666453336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.977823707328724</v>
+        <v>0.70204905544932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.376128775073937</v>
+        <v>2.01788322881773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.480623361005226</v>
+        <v>0.423203969169641</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.03449059422247</v>
+        <v>1.65889052701182</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0419021559835245</v>
+        <v>0.0971378538639125</v>
       </c>
     </row>
     <row r="12">
@@ -7985,10 +10139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
@@ -8026,79 +10180,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.156148658553714</v>
+        <v>-0.178881590617386</v>
       </c>
       <c r="C39" t="n">
-        <v>0.85543201363235</v>
+        <v>0.836204908042044</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183586501071594</v>
+        <v>0.172242619485757</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.850545424866618</v>
+        <v>-1.03854429961324</v>
       </c>
       <c r="F39" t="n">
-        <v>0.395021916803333</v>
+        <v>0.299016722302792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.678982819326304</v>
+        <v>0.79137087203777</v>
       </c>
       <c r="C40" t="n">
-        <v>0.507132575555364</v>
+        <v>2.20641907216182</v>
       </c>
       <c r="D40" t="n">
-        <v>0.491603510602191</v>
+        <v>0.644009793158473</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.3811594194976</v>
+        <v>1.22881807147152</v>
       </c>
       <c r="F40" t="n">
-        <v>0.167229949051908</v>
+        <v>0.219140024386875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B41" t="n">
-        <v>-13.8799839488178</v>
+        <v>0.0232163853788057</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000000937561061629739</v>
+        <v>1.02348798342274</v>
       </c>
       <c r="D41" t="n">
-        <v>3587.42882669145</v>
+        <v>0.265137280552183</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.00386906183212527</v>
+        <v>0.0875636399772015</v>
       </c>
       <c r="F41" t="n">
-        <v>0.996912943001379</v>
+        <v>0.930223502228659</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.983966850270871</v>
+        <v>0.706238381950526</v>
       </c>
       <c r="C42" t="n">
-        <v>0.373825244945681</v>
+        <v>2.02635453264376</v>
       </c>
       <c r="D42" t="n">
-        <v>0.480417747491897</v>
+        <v>0.425876265923801</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.0481484195949</v>
+        <v>1.65831824513294</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0405454587492503</v>
+        <v>0.0972532482934207</v>
       </c>
     </row>
     <row r="45">
@@ -8116,10 +10270,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50">
@@ -8149,7 +10303,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56">
@@ -8169,7 +10323,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60">
@@ -8189,7 +10343,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68">
@@ -8227,79 +10381,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0370728816599571</v>
+        <v>0.0387762924697924</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03776865238408</v>
+        <v>1.03953790517903</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0130383921897098</v>
+        <v>0.0122978853489157</v>
       </c>
       <c r="E72" t="n">
-        <v>2.8433629791575</v>
+        <v>3.15308619080687</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00446401991331289</v>
+        <v>0.00161554098704486</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.878486849927444</v>
+        <v>0.791991551327124</v>
       </c>
       <c r="C73" t="n">
-        <v>0.41541101556236</v>
+        <v>2.207788975875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.490554253970074</v>
+        <v>0.607924201131099</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.79080467209859</v>
+        <v>1.30278009964655</v>
       </c>
       <c r="F73" t="n">
-        <v>0.073324645266758</v>
+        <v>0.192649846648455</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B74" t="n">
-        <v>-13.8507316020672</v>
+        <v>-0.110220999885999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000000965391998462816</v>
+        <v>0.895636177929837</v>
       </c>
       <c r="D74" t="n">
-        <v>3676.76731668402</v>
+        <v>0.255756339750593</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.00376709495300855</v>
+        <v>-0.430960968527638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.996994300206901</v>
+        <v>0.666496751058827</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.997909856010642</v>
+        <v>0.724170231619211</v>
       </c>
       <c r="C75" t="n">
-        <v>0.368649166312179</v>
+        <v>2.06301856198809</v>
       </c>
       <c r="D75" t="n">
-        <v>0.47849455054304</v>
+        <v>0.411648500976968</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.08551979302193</v>
+        <v>1.75919559988809</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0370221434152941</v>
+        <v>0.0785442913802871</v>
       </c>
     </row>
     <row r="78">
@@ -8317,10 +10471,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -8350,7 +10504,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89">
@@ -8370,7 +10524,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93">
@@ -8390,7 +10544,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101">
@@ -8425,62 +10579,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.590560352689482</v>
+        <v>1.03421651989292</v>
       </c>
       <c r="C105" t="n">
-        <v>0.554016752961435</v>
+        <v>2.81290151967745</v>
       </c>
       <c r="D105" t="n">
-        <v>0.479969986769081</v>
+        <v>0.602087307656131</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.23041100270632</v>
+        <v>1.71771852145335</v>
       </c>
       <c r="F105" t="n">
-        <v>0.218543235224933</v>
+        <v>0.0858479693701503</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B106" t="n">
-        <v>-13.8759530987744</v>
+        <v>0.12631754252712</v>
       </c>
       <c r="C106" t="n">
-        <v>0.00000094134785654968</v>
+        <v>1.13464240830194</v>
       </c>
       <c r="D106" t="n">
-        <v>3585.19391043756</v>
+        <v>0.246331781921941</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.00387034939961753</v>
+        <v>0.512794335921898</v>
       </c>
       <c r="F106" t="n">
-        <v>0.996911915678848</v>
+        <v>0.608095192264837</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.02357351322428</v>
+        <v>0.82383385850419</v>
       </c>
       <c r="C107" t="n">
-        <v>0.35930864904377</v>
+        <v>2.27922132042627</v>
       </c>
       <c r="D107" t="n">
-        <v>0.47841552830049</v>
+        <v>0.410755923742419</v>
       </c>
       <c r="E107" t="n">
-        <v>-2.13950729580286</v>
+        <v>2.00565301894662</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0323946056846878</v>
+        <v>0.0448932809766872</v>
       </c>
     </row>
     <row r="111">
@@ -8498,10 +10652,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116">
@@ -8531,7 +10685,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122">
@@ -8551,7 +10705,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126">
@@ -8571,7 +10725,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134">
@@ -8581,7 +10735,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -8600,7 +10754,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
@@ -8638,19 +10792,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0258419631506758</v>
+        <v>0.0418516901362407</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0261787615997</v>
+        <v>1.04273981868179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00661169442191517</v>
+        <v>0.0137802207109969</v>
       </c>
       <c r="E6" t="n">
-        <v>3.90852351932961</v>
+        <v>3.03708416679004</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000928619083376924</v>
+        <v>0.00238878744961405</v>
       </c>
     </row>
     <row r="7">
@@ -8658,79 +10812,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0427934166115103</v>
+        <v>-0.0697981127998357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.958109299089518</v>
+        <v>0.932582077286438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118447831975288</v>
+        <v>0.177329183485037</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.361284929389323</v>
+        <v>-0.393607591418956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.717886458585796</v>
+        <v>0.693870775628758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>-14.9049280777236</v>
+        <v>1.40465594600056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00000033641239021828</v>
+        <v>4.07412478118119</v>
       </c>
       <c r="D8" t="n">
-        <v>2756.68505792883</v>
+        <v>0.626936519477401</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00540683021981557</v>
+        <v>2.24050745547803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.995685994663875</v>
+        <v>0.0250579973108608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
-        <v>0.528607391908917</v>
+        <v>2.2246928992086</v>
       </c>
       <c r="C9" t="n">
-        <v>1.69656800839328</v>
+        <v>9.25064148832205</v>
       </c>
       <c r="D9" t="n">
-        <v>0.209711457284227</v>
+        <v>0.408708193910063</v>
       </c>
       <c r="E9" t="n">
-        <v>2.5206414506599</v>
+        <v>5.44323048169214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0117141146132914</v>
+        <v>0.0000000523228756340132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
-        <v>0.883750068670631</v>
+        <v>2.51681928594504</v>
       </c>
       <c r="C10" t="n">
-        <v>2.41995771934428</v>
+        <v>12.3891276545776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.325491226260329</v>
+        <v>0.760669706274839</v>
       </c>
       <c r="E10" t="n">
-        <v>2.71512715972198</v>
+        <v>3.30868873202594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00662503271567505</v>
+        <v>0.000937339845529871</v>
       </c>
     </row>
     <row r="12">
@@ -8748,10 +10902,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -8789,79 +10943,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0165713890004796</v>
+        <v>0.0194146822263785</v>
       </c>
       <c r="C39" t="n">
-        <v>1.01670945606719</v>
+        <v>1.01960437277458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122616096289379</v>
+        <v>0.166188087585948</v>
       </c>
       <c r="E39" t="n">
-        <v>0.135148561257165</v>
+        <v>0.116823549198963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.892494416017355</v>
+        <v>0.906999881965481</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>-14.8425249789594</v>
+        <v>1.05614177915092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000000358074425763141</v>
+        <v>2.87525618800576</v>
       </c>
       <c r="D40" t="n">
-        <v>2679.41230483408</v>
+        <v>0.609100570401868</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.00553947033540943</v>
+        <v>1.73393661157485</v>
       </c>
       <c r="F40" t="n">
-        <v>0.995580164748676</v>
+        <v>0.0829293309044909</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B41" t="n">
-        <v>0.421200776202496</v>
+        <v>2.19565624940727</v>
       </c>
       <c r="C41" t="n">
-        <v>1.52379018850544</v>
+        <v>8.98589611129166</v>
       </c>
       <c r="D41" t="n">
-        <v>0.210201548261998</v>
+        <v>0.408255246135327</v>
       </c>
       <c r="E41" t="n">
-        <v>2.00379483255521</v>
+        <v>5.378145829581</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04509204261415</v>
+        <v>0.0000000752568501159182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84188776554423</v>
+        <v>2.87641568167463</v>
       </c>
       <c r="C42" t="n">
-        <v>2.32074386451677</v>
+        <v>17.7505354501955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.331685871772965</v>
+        <v>0.759638516422561</v>
       </c>
       <c r="E42" t="n">
-        <v>2.53820809745099</v>
+        <v>3.78655850050997</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0111421709349538</v>
+        <v>0.000152748147207052</v>
       </c>
     </row>
     <row r="45">
@@ -8879,10 +11033,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50">
@@ -8912,7 +11066,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>401</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
@@ -8932,7 +11086,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>402</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -8952,7 +11106,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>403</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -8990,79 +11144,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0256095723709175</v>
+        <v>0.0411342605488127</v>
       </c>
       <c r="C72" t="n">
-        <v>1.02594031482461</v>
+        <v>1.04199199457153</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00659436741562958</v>
+        <v>0.0136898470580406</v>
       </c>
       <c r="E72" t="n">
-        <v>3.88355254671117</v>
+        <v>3.00472754548802</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000102941272239822</v>
+        <v>0.00265818843920679</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>-14.887935730722</v>
+        <v>1.4164070635237</v>
       </c>
       <c r="C73" t="n">
-        <v>0.000000342177670387599</v>
+        <v>4.12228270080433</v>
       </c>
       <c r="D73" t="n">
-        <v>2763.73736330231</v>
+        <v>0.626589910564626</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.00538688513909037</v>
+        <v>2.26050091079086</v>
       </c>
       <c r="F73" t="n">
-        <v>0.995701908304096</v>
+        <v>0.0237901799693152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B74" t="n">
-        <v>0.520340479201457</v>
+        <v>2.23202134454312</v>
       </c>
       <c r="C74" t="n">
-        <v>1.68260044263639</v>
+        <v>9.31868332469601</v>
       </c>
       <c r="D74" t="n">
-        <v>0.208572761014909</v>
+        <v>0.408312238742405</v>
       </c>
       <c r="E74" t="n">
-        <v>2.49476718181941</v>
+        <v>5.46645711972216</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0126039797914435</v>
+        <v>0.0000000459119424831192</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="B75" t="n">
-        <v>0.83871027054593</v>
+        <v>2.53136745926426</v>
       </c>
       <c r="C75" t="n">
-        <v>2.31338141576154</v>
+        <v>12.5706842874676</v>
       </c>
       <c r="D75" t="n">
-        <v>0.300129187099122</v>
+        <v>0.75994089129837</v>
       </c>
       <c r="E75" t="n">
-        <v>2.79449752505722</v>
+        <v>3.33100572458916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00519804386598325</v>
+        <v>0.000865328228538427</v>
       </c>
     </row>
     <row r="78">
@@ -9080,10 +11234,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -9113,7 +11267,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>405</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
@@ -9133,7 +11287,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>406</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
@@ -9153,7 +11307,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>407</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
@@ -9188,62 +11342,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>-14.8487241010987</v>
+        <v>1.051446315522</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0000003558615447094</v>
+        <v>2.8617871735313</v>
       </c>
       <c r="D105" t="n">
-        <v>2679.74498261063</v>
+        <v>0.607658717595898</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.00554109596153922</v>
+        <v>1.73032375752277</v>
       </c>
       <c r="F105" t="n">
-        <v>0.995578867706592</v>
+        <v>0.0835724472066994</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>0.426586730941913</v>
+        <v>2.19246276922522</v>
       </c>
       <c r="C106" t="n">
-        <v>1.53201939466599</v>
+        <v>8.95724560190809</v>
       </c>
       <c r="D106" t="n">
-        <v>0.206458853589245</v>
+        <v>0.407291418331929</v>
       </c>
       <c r="E106" t="n">
-        <v>2.06620701183693</v>
+        <v>5.38303207615936</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0388089370634007</v>
+        <v>0.0000000732414803025716</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>0.861145301089588</v>
+        <v>2.87416645714788</v>
       </c>
       <c r="C107" t="n">
-        <v>2.36586877471121</v>
+        <v>17.7106553769303</v>
       </c>
       <c r="D107" t="n">
-        <v>0.299748117581935</v>
+        <v>0.759380205696872</v>
       </c>
       <c r="E107" t="n">
-        <v>2.87289644397582</v>
+        <v>3.78488461456577</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00406727412845909</v>
+        <v>0.000153779910695775</v>
       </c>
     </row>
     <row r="111">
@@ -9261,10 +11415,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
@@ -9294,7 +11448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>409</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
@@ -9314,7 +11468,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>410</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126">
@@ -9334,7 +11488,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
@@ -9344,7 +11498,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>412</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
